--- a/xlsx_files/Race51.xlsx
+++ b/xlsx_files/Race51.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BCE3AF-7A2E-48ED-A9D8-5958537FBC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC2DD6-080F-4160-BF7B-8C90D984DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4872" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Track Name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>01:43.5200</t>
+  </si>
+  <si>
+    <t>Tymofii Istomin</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -792,8 +795,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -801,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -809,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -825,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -833,7 +836,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -841,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -849,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -857,12 +860,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>

--- a/xlsx_files/Race51.xlsx
+++ b/xlsx_files/Race51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC2DD6-080F-4160-BF7B-8C90D984DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE5C1E-5080-47D6-8935-BD9582DDB6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Track Name</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Tymofii Istomin</t>
+  </si>
+  <si>
+    <t>01:43.1570</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -696,13 +699,19 @@
         <v>33</v>
       </c>
       <c r="E2" s="1">
-        <v>45496</v>
+        <v>45490</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
